--- a/DbScript/dbConfig/dbo/policy/structure.xlsx
+++ b/DbScript/dbConfig/dbo/policy/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydutt\source\test\TestDataGen\DbScript\dbConfig\dbo\policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD69C0-BA07-4EBD-8148-29D5B6FF3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B9C2A7-89A4-44D4-8D89-6AB00210A2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="structure" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structure!$B$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">structure!$C$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>columnname</t>
   </si>
@@ -115,6 +126,33 @@
   </si>
   <si>
     <t>currentApplicationPolicyStatusDefinitionId</t>
+  </si>
+  <si>
+    <t>isIdentity</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>lastModifiedDate</t>
+  </si>
+  <si>
+    <t>disenrollmentDate</t>
+  </si>
+  <si>
+    <t>arSpecificPolicyIdentifier</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>yyyyMMdd</t>
   </si>
 </sst>
 </file>
@@ -502,369 +540,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11 G2:G11 J2:J11" xr:uid="{C9C5B389-045E-46A1-8468-681E4E5A24C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11 H2:H15 K2:K15" xr:uid="{C9C5B389-045E-46A1-8468-681E4E5A24C1}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11 I2:I11" xr:uid="{9354F223-5101-41CE-B965-21FE7386A164}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 J2:J15" xr:uid="{9354F223-5101-41CE-B965-21FE7386A164}">
       <formula1>"Random,Sheet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{965E707A-6ABA-47E9-A796-967104C7FCFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{965E707A-6ABA-47E9-A796-967104C7FCFA}">
       <formula1>"int,string,boolean,bit,date,guid"</formula1>
     </dataValidation>
   </dataValidations>
